--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam4-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam4-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Icam4</t>
+  </si>
+  <si>
+    <t>Itga4</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Icam4</t>
-  </si>
-  <si>
-    <t>Itga4</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H2">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I2">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J2">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N2">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O2">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P2">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q2">
-        <v>0.3327046661045</v>
+        <v>0.8526952700924999</v>
       </c>
       <c r="R2">
-        <v>1.330818664418</v>
+        <v>3.41078108037</v>
       </c>
       <c r="S2">
-        <v>0.0008457285250734494</v>
+        <v>0.0005753977192427601</v>
       </c>
       <c r="T2">
-        <v>0.0004286458683851196</v>
+        <v>0.0002666003742413278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H3">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I3">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J3">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P3">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q3">
-        <v>0.02980988561616666</v>
+        <v>0.02935253433916666</v>
       </c>
       <c r="R3">
-        <v>0.178859313697</v>
+        <v>0.176115206035</v>
       </c>
       <c r="S3">
-        <v>7.577612568514521E-05</v>
+        <v>1.980705406155138E-05</v>
       </c>
       <c r="T3">
-        <v>5.76091302957083E-05</v>
+        <v>1.376587319213879E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H4">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I4">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J4">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N4">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O4">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P4">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q4">
-        <v>51.79509520235383</v>
+        <v>60.15907150178666</v>
       </c>
       <c r="R4">
-        <v>310.770571214123</v>
+        <v>360.95442901072</v>
       </c>
       <c r="S4">
-        <v>0.1316620833257773</v>
+        <v>0.04059526743960374</v>
       </c>
       <c r="T4">
-        <v>0.1000966735200349</v>
+        <v>0.02821365065385073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H5">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I5">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J5">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N5">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O5">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P5">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q5">
-        <v>1.45340154640325</v>
+        <v>2.77116282319125</v>
       </c>
       <c r="R5">
-        <v>5.813606185613</v>
+        <v>11.084651292765</v>
       </c>
       <c r="S5">
-        <v>0.003694517304404182</v>
+        <v>0.001869977263907657</v>
       </c>
       <c r="T5">
-        <v>0.001872515270869748</v>
+        <v>0.0008664209497330718</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H6">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I6">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J6">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N6">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O6">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P6">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q6">
-        <v>0.6436521950413333</v>
+        <v>58.65324542782333</v>
       </c>
       <c r="R6">
-        <v>3.861913170248</v>
+        <v>351.91947256694</v>
       </c>
       <c r="S6">
-        <v>0.001636150847976437</v>
+        <v>0.03957913785741339</v>
       </c>
       <c r="T6">
-        <v>0.001243890823557715</v>
+        <v>0.02750744210149634</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H7">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I7">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J7">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N7">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O7">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P7">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q7">
-        <v>74.31487452370951</v>
+        <v>23.07751465373499</v>
       </c>
       <c r="R7">
-        <v>445.889247142257</v>
+        <v>138.46508792241</v>
       </c>
       <c r="S7">
-        <v>0.1889069064099465</v>
+        <v>0.01557267849757162</v>
       </c>
       <c r="T7">
-        <v>0.1436173001289137</v>
+        <v>0.01082298845620088</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.534717</v>
       </c>
       <c r="I8">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J8">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N8">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O8">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P8">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q8">
-        <v>0.056548639857</v>
+        <v>0.147187805571</v>
       </c>
       <c r="R8">
-        <v>0.339291839142</v>
+        <v>0.8831268334259998</v>
       </c>
       <c r="S8">
-        <v>0.0001437454975944007</v>
+        <v>9.932215012370475E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001092831419587955</v>
+        <v>6.902874700723678E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.534717</v>
       </c>
       <c r="I9">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J9">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P9">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q9">
         <v>0.005066681226999999</v>
@@ -1013,10 +1013,10 @@
         <v>0.04560013104299999</v>
       </c>
       <c r="S9">
-        <v>1.287940109557149E-05</v>
+        <v>3.418990258770468E-06</v>
       </c>
       <c r="T9">
-        <v>1.468743134734293E-05</v>
+        <v>3.564289737469345E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.534717</v>
       </c>
       <c r="I10">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J10">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N10">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O10">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P10">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q10">
-        <v>8.803429838393001</v>
+        <v>10.384344829984</v>
       </c>
       <c r="R10">
-        <v>79.23086854553701</v>
+        <v>93.45910346985599</v>
       </c>
       <c r="S10">
-        <v>0.0223781404089872</v>
+        <v>0.007007343116087607</v>
       </c>
       <c r="T10">
-        <v>0.02551961838126262</v>
+        <v>0.007305139607089557</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>0.534717</v>
       </c>
       <c r="I11">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J11">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N11">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O11">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P11">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q11">
-        <v>0.2470295399745</v>
+        <v>0.4783436581995</v>
       </c>
       <c r="R11">
-        <v>1.482177239847</v>
+        <v>2.870061949197</v>
       </c>
       <c r="S11">
-        <v>0.0006279440890876668</v>
+        <v>0.0003227857120778601</v>
       </c>
       <c r="T11">
-        <v>0.0004773972345456412</v>
+        <v>0.0002243355910924401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>0.534717</v>
       </c>
       <c r="I12">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J12">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N12">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O12">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P12">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q12">
-        <v>0.109399295768</v>
+        <v>10.124416995068</v>
       </c>
       <c r="R12">
-        <v>0.984593661912</v>
+        <v>91.119752955612</v>
       </c>
       <c r="S12">
-        <v>0.000278090794869959</v>
+        <v>0.00683194413285864</v>
       </c>
       <c r="T12">
-        <v>0.0003171296108935498</v>
+        <v>0.007122286557338432</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>0.534717</v>
       </c>
       <c r="I13">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J13">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N13">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O13">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P13">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q13">
-        <v>12.631037384187</v>
+        <v>3.983520091002</v>
       </c>
       <c r="R13">
-        <v>113.679336457683</v>
+        <v>35.85168081901799</v>
       </c>
       <c r="S13">
-        <v>0.03210784129405869</v>
+        <v>0.002688074456741876</v>
       </c>
       <c r="T13">
-        <v>0.03661518972959231</v>
+        <v>0.002802311640151932</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H14">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I14">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J14">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N14">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O14">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P14">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q14">
-        <v>0.09553211947333334</v>
+        <v>0.6343493640229999</v>
       </c>
       <c r="R14">
-        <v>0.5731927168400001</v>
+        <v>3.806096184137999</v>
       </c>
       <c r="S14">
-        <v>0.0002428407134931672</v>
+        <v>0.0004280581704438612</v>
       </c>
       <c r="T14">
-        <v>0.000184620712371326</v>
+        <v>0.0002974997935017294</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H15">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I15">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J15">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P15">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q15">
-        <v>0.008559547984444443</v>
+        <v>0.02183636070655555</v>
       </c>
       <c r="R15">
-        <v>0.07703593186</v>
+        <v>0.196527246359</v>
       </c>
       <c r="S15">
-        <v>2.17581976740473E-05</v>
+        <v>1.473514934092609E-05</v>
       </c>
       <c r="T15">
-        <v>2.481264712606624E-05</v>
+        <v>1.536136040201189E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H16">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I16">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J16">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N16">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O16">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P16">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q16">
-        <v>14.87233491774889</v>
+        <v>44.75440416508089</v>
       </c>
       <c r="R16">
-        <v>133.85101425974</v>
+        <v>402.789637485728</v>
       </c>
       <c r="S16">
-        <v>0.03780517424554391</v>
+        <v>0.03020021687215729</v>
       </c>
       <c r="T16">
-        <v>0.04311232309526306</v>
+        <v>0.03148365889333915</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,14 +1458,14 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H17">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I17">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J17">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N17">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O17">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P17">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q17">
-        <v>0.4173266693233333</v>
+        <v>2.0615634167935</v>
       </c>
       <c r="R17">
-        <v>2.50396001594</v>
+        <v>12.369380500761</v>
       </c>
       <c r="S17">
-        <v>0.001060835943941286</v>
+        <v>0.001391140457444559</v>
       </c>
       <c r="T17">
-        <v>0.0008065051566612985</v>
+        <v>0.0009668405543866027</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H18">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I18">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J18">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N18">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O18">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P18">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q18">
-        <v>0.1848169402488889</v>
+        <v>43.63416831312844</v>
       </c>
       <c r="R18">
-        <v>1.66335246224</v>
+        <v>392.707514818156</v>
       </c>
       <c r="S18">
-        <v>0.0004698009201836275</v>
+        <v>0.02944428309741325</v>
       </c>
       <c r="T18">
-        <v>0.000535752300197262</v>
+        <v>0.03069559961513121</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H19">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I19">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J19">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N19">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O19">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P19">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q19">
-        <v>21.33861708274</v>
+        <v>17.16815755555933</v>
       </c>
       <c r="R19">
-        <v>192.04755374466</v>
+        <v>154.513418000034</v>
       </c>
       <c r="S19">
-        <v>0.05424233258821951</v>
+        <v>0.01158505159762125</v>
       </c>
       <c r="T19">
-        <v>0.06185695515633489</v>
+        <v>0.01207739051362603</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H20">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I20">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J20">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N20">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O20">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P20">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q20">
-        <v>0.0307860910995</v>
+        <v>6.704867439782999</v>
       </c>
       <c r="R20">
-        <v>0.123144364398</v>
+        <v>40.22920463869799</v>
       </c>
       <c r="S20">
-        <v>7.825762025886062E-05</v>
+        <v>0.004524436299802241</v>
       </c>
       <c r="T20">
-        <v>3.966379825098008E-05</v>
+        <v>0.003144476517075201</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H21">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I21">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J21">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P21">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q21">
-        <v>0.0027583918945</v>
+        <v>0.230803264271</v>
       </c>
       <c r="R21">
-        <v>0.016550351367</v>
+        <v>2.077229378439</v>
       </c>
       <c r="S21">
-        <v>7.011776347546961E-06</v>
+        <v>0.0001557457587877918</v>
       </c>
       <c r="T21">
-        <v>5.330733572848598E-06</v>
+        <v>0.000162364606999885</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H22">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I22">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J22">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N22">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O22">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P22">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q22">
-        <v>4.7927446827755</v>
+        <v>473.0395650912319</v>
       </c>
       <c r="R22">
-        <v>28.756468096653</v>
+        <v>4257.356085821088</v>
       </c>
       <c r="S22">
-        <v>0.01218305994645777</v>
+        <v>0.3192065165736823</v>
       </c>
       <c r="T22">
-        <v>0.009262224500262345</v>
+        <v>0.3327720832893125</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H23">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I23">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J23">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N23">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O23">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P23">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q23">
-        <v>0.13448730051075</v>
+        <v>21.7900579905135</v>
       </c>
       <c r="R23">
-        <v>0.537949202043</v>
+        <v>130.740347943081</v>
       </c>
       <c r="S23">
-        <v>0.0003418639949772797</v>
+        <v>0.01470390432510414</v>
       </c>
       <c r="T23">
-        <v>0.0001732690628874269</v>
+        <v>0.01021919169502539</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H24">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I24">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J24">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N24">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O24">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P24">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q24">
-        <v>0.059558933588</v>
+        <v>461.1990347547639</v>
       </c>
       <c r="R24">
-        <v>0.357353601528</v>
+        <v>4150.791312792876</v>
       </c>
       <c r="S24">
-        <v>0.0001513976033101553</v>
+        <v>0.3112165412692698</v>
       </c>
       <c r="T24">
-        <v>0.0001151006887286993</v>
+        <v>0.324442551812264</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H25">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I25">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J25">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N25">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O25">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P25">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q25">
-        <v>6.8765627002545</v>
+        <v>181.461868055346</v>
       </c>
       <c r="R25">
-        <v>41.259376201527</v>
+        <v>1633.156812498114</v>
       </c>
       <c r="S25">
-        <v>0.01748008315649732</v>
+        <v>0.1224502453229864</v>
       </c>
       <c r="T25">
-        <v>0.01328930951585824</v>
+        <v>0.1276541082957864</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H26">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I26">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J26">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N26">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O26">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P26">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q26">
-        <v>0.1916929484583333</v>
+        <v>0.343066883212</v>
       </c>
       <c r="R26">
-        <v>1.15015769075</v>
+        <v>2.058401299272</v>
       </c>
       <c r="S26">
-        <v>0.0004872795938357122</v>
+        <v>0.0002315011107385331</v>
       </c>
       <c r="T26">
-        <v>0.0003704564380654845</v>
+        <v>0.0001608929285679104</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H27">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I27">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J27">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O27">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P27">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q27">
-        <v>0.01717542748611111</v>
+        <v>0.01180947382177778</v>
       </c>
       <c r="R27">
-        <v>0.154578847375</v>
+        <v>0.106285264396</v>
       </c>
       <c r="S27">
-        <v>4.36595889243474E-05</v>
+        <v>7.969018406506328E-06</v>
       </c>
       <c r="T27">
-        <v>4.978858956415726E-05</v>
+        <v>8.307683957610742E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H28">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I28">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J28">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N28">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O28">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P28">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q28">
-        <v>29.84254663834722</v>
+        <v>24.20394000169244</v>
       </c>
       <c r="R28">
-        <v>268.582919745125</v>
+        <v>217.835460015232</v>
       </c>
       <c r="S28">
-        <v>0.07585914934225099</v>
+        <v>0.01633278893660529</v>
       </c>
       <c r="T28">
-        <v>0.0865083740901003</v>
+        <v>0.01702689612573807</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,14 +2202,14 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
       <c r="E29">
         <v>3</v>
       </c>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H29">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I29">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J29">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N29">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O29">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P29">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q29">
-        <v>0.8373998206458334</v>
+        <v>1.114928422814</v>
       </c>
       <c r="R29">
-        <v>5.024398923875</v>
+        <v>6.689570536884</v>
       </c>
       <c r="S29">
-        <v>0.002128653389517318</v>
+        <v>0.0007523523280907974</v>
       </c>
       <c r="T29">
-        <v>0.001618318030412897</v>
+        <v>0.0005228837520271363</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H30">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I30">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J30">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N30">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O30">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P30">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q30">
-        <v>0.3708501852222222</v>
+        <v>23.59809747391822</v>
       </c>
       <c r="R30">
-        <v>3.337651667</v>
+        <v>212.382877265264</v>
       </c>
       <c r="S30">
-        <v>0.0009426936623506627</v>
+        <v>0.015923967144192</v>
       </c>
       <c r="T30">
-        <v>0.001075030457131381</v>
+        <v>0.01660070031678114</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H31">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I31">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J31">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N31">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O31">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P31">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q31">
-        <v>42.81766642637501</v>
+        <v>9.284830469010664</v>
       </c>
       <c r="R31">
-        <v>385.3589978373751</v>
+        <v>83.56347422109599</v>
       </c>
       <c r="S31">
-        <v>0.1088416411403474</v>
+        <v>0.006265392177963972</v>
       </c>
       <c r="T31">
-        <v>0.1241209991146761</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H32">
-        <v>2.938298</v>
-      </c>
-      <c r="I32">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J32">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.317263</v>
-      </c>
-      <c r="N32">
-        <v>0.634526</v>
-      </c>
-      <c r="O32">
-        <v>0.002587741009497455</v>
-      </c>
-      <c r="P32">
-        <v>0.001733186563985812</v>
-      </c>
-      <c r="Q32">
-        <v>0.3107377461246667</v>
-      </c>
-      <c r="R32">
-        <v>1.864426476748</v>
-      </c>
-      <c r="S32">
-        <v>0.000789889059241865</v>
-      </c>
-      <c r="T32">
-        <v>0.0006005166049541063</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H33">
-        <v>2.938298</v>
-      </c>
-      <c r="I33">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J33">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M33">
-        <v>0.02842633333333333</v>
-      </c>
-      <c r="N33">
-        <v>0.08527899999999999</v>
-      </c>
-      <c r="O33">
-        <v>0.0002318580752130287</v>
-      </c>
-      <c r="P33">
-        <v>0.0002329367385893502</v>
-      </c>
-      <c r="Q33">
-        <v>0.02784167946022222</v>
-      </c>
-      <c r="R33">
-        <v>0.250575115142</v>
-      </c>
-      <c r="S33">
-        <v>7.07729854863704E-05</v>
-      </c>
-      <c r="T33">
-        <v>8.070820668322688E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H34">
-        <v>2.938298</v>
-      </c>
-      <c r="I34">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J34">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>49.39115366666667</v>
-      </c>
-      <c r="N34">
-        <v>148.173461</v>
-      </c>
-      <c r="O34">
-        <v>0.4028566641859401</v>
-      </c>
-      <c r="P34">
-        <v>0.4047308569616938</v>
-      </c>
-      <c r="Q34">
-        <v>48.37530934548645</v>
-      </c>
-      <c r="R34">
-        <v>435.377784109378</v>
-      </c>
-      <c r="S34">
-        <v>0.1229690569169229</v>
-      </c>
-      <c r="T34">
-        <v>0.1402316433747706</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H35">
-        <v>2.938298</v>
-      </c>
-      <c r="I35">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J35">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.3859455</v>
-      </c>
-      <c r="N35">
-        <v>2.771891</v>
-      </c>
-      <c r="O35">
-        <v>0.01130440047304115</v>
-      </c>
-      <c r="P35">
-        <v>0.007571327633592944</v>
-      </c>
-      <c r="Q35">
-        <v>1.357440296919667</v>
-      </c>
-      <c r="R35">
-        <v>8.144641781518001</v>
-      </c>
-      <c r="S35">
-        <v>0.003450585751113417</v>
-      </c>
-      <c r="T35">
-        <v>0.002623322878215932</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H36">
-        <v>2.938298</v>
-      </c>
-      <c r="I36">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J36">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0.6137786666666667</v>
-      </c>
-      <c r="N36">
-        <v>1.841336</v>
-      </c>
-      <c r="O36">
-        <v>0.005006257352694774</v>
-      </c>
-      <c r="P36">
-        <v>0.005029547749002214</v>
-      </c>
-      <c r="Q36">
-        <v>0.6011548762364445</v>
-      </c>
-      <c r="R36">
-        <v>5.410393886128</v>
-      </c>
-      <c r="S36">
-        <v>0.001528123524003932</v>
-      </c>
-      <c r="T36">
-        <v>0.001742643868493607</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H37">
-        <v>2.938298</v>
-      </c>
-      <c r="I37">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J37">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>70.86573300000001</v>
-      </c>
-      <c r="N37">
-        <v>212.597199</v>
-      </c>
-      <c r="O37">
-        <v>0.5780130789036134</v>
-      </c>
-      <c r="P37">
-        <v>0.5807021443531359</v>
-      </c>
-      <c r="Q37">
-        <v>69.40821384747801</v>
-      </c>
-      <c r="R37">
-        <v>624.6739246273021</v>
-      </c>
-      <c r="S37">
-        <v>0.176434274314544</v>
-      </c>
-      <c r="T37">
-        <v>0.2012023907077606</v>
+        <v>0.006531657404946386</v>
       </c>
     </row>
   </sheetData>
